--- a/contratos/contratos-5-2017.xlsx
+++ b/contratos/contratos-5-2017.xlsx
@@ -982,7 +982,7 @@
     <t>NALDO LOMBARDI  S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOURLOT NESTOR CONRADO</t>
@@ -1078,7 +1078,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1129,7 +1129,7 @@
     <t>CHAREUN EDUARDO ROGELIO</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>FRANCESCHINI FRANCISCO MANUEL</t>
@@ -1309,7 +1309,7 @@
     <t>COLOMBO DANIEL ROBERTO</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
@@ -1333,7 +1333,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1939,745 +1939,745 @@
     <t>62</t>
   </si>
   <si>
-    <t>4.660,00</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>17.640,00</t>
-  </si>
-  <si>
-    <t>4.155,00</t>
-  </si>
-  <si>
-    <t>1.340,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>300.000,00</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>1.154.962,09</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>994,98</t>
-  </si>
-  <si>
-    <t>8.000,20</t>
-  </si>
-  <si>
-    <t>328,70</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>87.150,00</t>
-  </si>
-  <si>
-    <t>98.932,40</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>127.789,90</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>102.820,90</t>
-  </si>
-  <si>
-    <t>49.222,00</t>
-  </si>
-  <si>
-    <t>58.035,81</t>
-  </si>
-  <si>
-    <t>3.690,00</t>
-  </si>
-  <si>
-    <t>3.602,90</t>
-  </si>
-  <si>
-    <t>40.712,59</t>
-  </si>
-  <si>
-    <t>17.904,00</t>
-  </si>
-  <si>
-    <t>24.971,27</t>
-  </si>
-  <si>
-    <t>28.138,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>7.790,00</t>
-  </si>
-  <si>
-    <t>525,09</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>1.530,00</t>
-  </si>
-  <si>
-    <t>51.214,47</t>
-  </si>
-  <si>
-    <t>62.375,35</t>
-  </si>
-  <si>
-    <t>758,88</t>
-  </si>
-  <si>
-    <t>26.047,00</t>
-  </si>
-  <si>
-    <t>99.430,00</t>
-  </si>
-  <si>
-    <t>508.090,00</t>
-  </si>
-  <si>
-    <t>10.639,35</t>
-  </si>
-  <si>
-    <t>7.256,26</t>
-  </si>
-  <si>
-    <t>33.930,00</t>
-  </si>
-  <si>
-    <t>44.192,00</t>
-  </si>
-  <si>
-    <t>10.565,52</t>
-  </si>
-  <si>
-    <t>186.150,54</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>9.680,00</t>
-  </si>
-  <si>
-    <t>184,50</t>
-  </si>
-  <si>
-    <t>300,23</t>
-  </si>
-  <si>
-    <t>3.484,56</t>
-  </si>
-  <si>
-    <t>1.764,25</t>
-  </si>
-  <si>
-    <t>8.284,00</t>
-  </si>
-  <si>
-    <t>43.513,02</t>
-  </si>
-  <si>
-    <t>130,05</t>
-  </si>
-  <si>
-    <t>9.452,45</t>
-  </si>
-  <si>
-    <t>501,50</t>
-  </si>
-  <si>
-    <t>148.142,89</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>150.694,62</t>
-  </si>
-  <si>
-    <t>7.700,48</t>
-  </si>
-  <si>
-    <t>11.770,84</t>
-  </si>
-  <si>
-    <t>35.087,25</t>
-  </si>
-  <si>
-    <t>15.880,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>2.750,00</t>
-  </si>
-  <si>
-    <t>4.930,76</t>
-  </si>
-  <si>
-    <t>5.050,00</t>
-  </si>
-  <si>
-    <t>8.750,00</t>
-  </si>
-  <si>
-    <t>2.677,00</t>
-  </si>
-  <si>
-    <t>11.783,60</t>
-  </si>
-  <si>
-    <t>9.111,52</t>
-  </si>
-  <si>
-    <t>493,90</t>
-  </si>
-  <si>
-    <t>6.115,55</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>4.510,80</t>
-  </si>
-  <si>
-    <t>625,00</t>
-  </si>
-  <si>
-    <t>2.560,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>7.425,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>378,00</t>
-  </si>
-  <si>
-    <t>26.180,00</t>
-  </si>
-  <si>
-    <t>119,10</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>21.680,00</t>
-  </si>
-  <si>
-    <t>344,00</t>
-  </si>
-  <si>
-    <t>15.108,00</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>558.358,95</t>
-  </si>
-  <si>
-    <t>54.317,09</t>
-  </si>
-  <si>
-    <t>44.017.080,99</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>28.703,62</t>
-  </si>
-  <si>
-    <t>17.950,00</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>10.025,80</t>
-  </si>
-  <si>
-    <t>297,25</t>
-  </si>
-  <si>
-    <t>2.636,28</t>
-  </si>
-  <si>
-    <t>3.496,00</t>
-  </si>
-  <si>
-    <t>8.550,00</t>
-  </si>
-  <si>
-    <t>24.354,00</t>
-  </si>
-  <si>
-    <t>3.240,00</t>
-  </si>
-  <si>
-    <t>6.865,00</t>
-  </si>
-  <si>
-    <t>12.160,00</t>
-  </si>
-  <si>
-    <t>34.117,20</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
-  </si>
-  <si>
-    <t>23.664,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>5.337,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>7.993,00</t>
-  </si>
-  <si>
-    <t>4.796,00</t>
-  </si>
-  <si>
-    <t>36.368,77</t>
-  </si>
-  <si>
-    <t>10.872,00</t>
-  </si>
-  <si>
-    <t>1.757,05</t>
-  </si>
-  <si>
-    <t>674,90</t>
-  </si>
-  <si>
-    <t>16.823,60</t>
-  </si>
-  <si>
-    <t>257,00</t>
-  </si>
-  <si>
-    <t>184,10</t>
-  </si>
-  <si>
-    <t>66,41</t>
-  </si>
-  <si>
-    <t>1.145,00</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>612,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>1.849,79</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>439.200,00</t>
-  </si>
-  <si>
-    <t>497.722,50</t>
-  </si>
-  <si>
-    <t>2.820,00</t>
-  </si>
-  <si>
-    <t>3.452,89</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>3.128,48</t>
-  </si>
-  <si>
-    <t>22.508,00</t>
-  </si>
-  <si>
-    <t>692,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>18.700,00</t>
-  </si>
-  <si>
-    <t>5.851,34</t>
-  </si>
-  <si>
-    <t>4.520,14</t>
-  </si>
-  <si>
-    <t>18.135,10</t>
-  </si>
-  <si>
-    <t>1.267,71</t>
-  </si>
-  <si>
-    <t>1.719,00</t>
-  </si>
-  <si>
-    <t>14.277,60</t>
-  </si>
-  <si>
-    <t>1.093,50</t>
-  </si>
-  <si>
-    <t>3.300.000,00</t>
-  </si>
-  <si>
-    <t>356.000,00</t>
-  </si>
-  <si>
-    <t>5.080,00</t>
-  </si>
-  <si>
-    <t>1.633,80</t>
-  </si>
-  <si>
-    <t>80.628,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>48.911,23</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.999,12</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>56.465,50</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>10.100,00</t>
-  </si>
-  <si>
-    <t>21.268,17</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>75.664,00</t>
-  </si>
-  <si>
-    <t>21.550,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>5.773,00</t>
-  </si>
-  <si>
-    <t>6.151,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>2.637,60</t>
-  </si>
-  <si>
-    <t>636,00</t>
-  </si>
-  <si>
-    <t>4.711,00</t>
-  </si>
-  <si>
-    <t>8.645,00</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>1.913,50</t>
-  </si>
-  <si>
-    <t>1.295,55</t>
-  </si>
-  <si>
-    <t>3.770,00</t>
-  </si>
-  <si>
-    <t>921,00</t>
-  </si>
-  <si>
-    <t>9.950,00</t>
-  </si>
-  <si>
-    <t>4.929,50</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>406,37</t>
-  </si>
-  <si>
-    <t>9.808,00</t>
-  </si>
-  <si>
-    <t>5.360,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>7.410,00</t>
-  </si>
-  <si>
-    <t>31.716,00</t>
-  </si>
-  <si>
-    <t>3.874,05</t>
-  </si>
-  <si>
-    <t>804,96</t>
-  </si>
-  <si>
-    <t>1.860,00</t>
-  </si>
-  <si>
-    <t>128.500,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>448,26</t>
-  </si>
-  <si>
-    <t>10.710,00</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>13.600,00</t>
-  </si>
-  <si>
-    <t>4.211,70</t>
-  </si>
-  <si>
-    <t>204.271,48</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>45.600,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>2.650.250,00</t>
-  </si>
-  <si>
-    <t>274.365,00</t>
-  </si>
-  <si>
-    <t>136.500,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>128.000,00</t>
-  </si>
-  <si>
-    <t>224.000,00</t>
-  </si>
-  <si>
-    <t>321.500,00</t>
-  </si>
-  <si>
-    <t>320.000,00</t>
-  </si>
-  <si>
-    <t>211.000,00</t>
-  </si>
-  <si>
-    <t>143.080,00</t>
-  </si>
-  <si>
-    <t>2.958.038,42</t>
-  </si>
-  <si>
-    <t>244.803,16</t>
-  </si>
-  <si>
-    <t>9.156,00</t>
-  </si>
-  <si>
-    <t>83.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>2.783,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>4.394,60</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>41.400,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>137.986,00</t>
-  </si>
-  <si>
-    <t>5.701,50</t>
-  </si>
-  <si>
-    <t>39.800,00</t>
+    <t>4660.00</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>17640.00</t>
+  </si>
+  <si>
+    <t>4155.00</t>
+  </si>
+  <si>
+    <t>1340.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>300000.00</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>1154962.09</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>994.98</t>
+  </si>
+  <si>
+    <t>8000.20</t>
+  </si>
+  <si>
+    <t>328.70</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>87150.00</t>
+  </si>
+  <si>
+    <t>98932.40</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>127789.90</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>102820.90</t>
+  </si>
+  <si>
+    <t>49222.00</t>
+  </si>
+  <si>
+    <t>58035.81</t>
+  </si>
+  <si>
+    <t>3690.00</t>
+  </si>
+  <si>
+    <t>3602.90</t>
+  </si>
+  <si>
+    <t>40712.59</t>
+  </si>
+  <si>
+    <t>17904.00</t>
+  </si>
+  <si>
+    <t>24971.27</t>
+  </si>
+  <si>
+    <t>28138.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>7790.00</t>
+  </si>
+  <si>
+    <t>525.09</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>1530.00</t>
+  </si>
+  <si>
+    <t>51214.47</t>
+  </si>
+  <si>
+    <t>62375.35</t>
+  </si>
+  <si>
+    <t>758.88</t>
+  </si>
+  <si>
+    <t>26047.00</t>
+  </si>
+  <si>
+    <t>99430.00</t>
+  </si>
+  <si>
+    <t>508090.00</t>
+  </si>
+  <si>
+    <t>10639.35</t>
+  </si>
+  <si>
+    <t>7256.26</t>
+  </si>
+  <si>
+    <t>33930.00</t>
+  </si>
+  <si>
+    <t>44192.00</t>
+  </si>
+  <si>
+    <t>10565.52</t>
+  </si>
+  <si>
+    <t>186150.54</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>9680.00</t>
+  </si>
+  <si>
+    <t>184.50</t>
+  </si>
+  <si>
+    <t>300.23</t>
+  </si>
+  <si>
+    <t>3484.56</t>
+  </si>
+  <si>
+    <t>1764.25</t>
+  </si>
+  <si>
+    <t>8284.00</t>
+  </si>
+  <si>
+    <t>43513.02</t>
+  </si>
+  <si>
+    <t>130.05</t>
+  </si>
+  <si>
+    <t>9452.45</t>
+  </si>
+  <si>
+    <t>501.50</t>
+  </si>
+  <si>
+    <t>148142.89</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>150694.62</t>
+  </si>
+  <si>
+    <t>7700.48</t>
+  </si>
+  <si>
+    <t>11770.84</t>
+  </si>
+  <si>
+    <t>35087.25</t>
+  </si>
+  <si>
+    <t>15880.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>4930.76</t>
+  </si>
+  <si>
+    <t>5050.00</t>
+  </si>
+  <si>
+    <t>8750.00</t>
+  </si>
+  <si>
+    <t>2677.00</t>
+  </si>
+  <si>
+    <t>11783.60</t>
+  </si>
+  <si>
+    <t>9111.52</t>
+  </si>
+  <si>
+    <t>493.90</t>
+  </si>
+  <si>
+    <t>6115.55</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>4510.80</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+  <si>
+    <t>2560.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>7425.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>26180.00</t>
+  </si>
+  <si>
+    <t>119.10</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>21680.00</t>
+  </si>
+  <si>
+    <t>344.00</t>
+  </si>
+  <si>
+    <t>15108.00</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>558358.95</t>
+  </si>
+  <si>
+    <t>54317.09</t>
+  </si>
+  <si>
+    <t>44017080.99</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>28703.62</t>
+  </si>
+  <si>
+    <t>17950.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>10025.80</t>
+  </si>
+  <si>
+    <t>297.25</t>
+  </si>
+  <si>
+    <t>2636.28</t>
+  </si>
+  <si>
+    <t>3496.00</t>
+  </si>
+  <si>
+    <t>8550.00</t>
+  </si>
+  <si>
+    <t>24354.00</t>
+  </si>
+  <si>
+    <t>3240.00</t>
+  </si>
+  <si>
+    <t>6865.00</t>
+  </si>
+  <si>
+    <t>12160.00</t>
+  </si>
+  <si>
+    <t>34117.20</t>
+  </si>
+  <si>
+    <t>1540.00</t>
+  </si>
+  <si>
+    <t>23664.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>5337.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>7993.00</t>
+  </si>
+  <si>
+    <t>4796.00</t>
+  </si>
+  <si>
+    <t>36368.77</t>
+  </si>
+  <si>
+    <t>10872.00</t>
+  </si>
+  <si>
+    <t>1757.05</t>
+  </si>
+  <si>
+    <t>674.90</t>
+  </si>
+  <si>
+    <t>16823.60</t>
+  </si>
+  <si>
+    <t>257.00</t>
+  </si>
+  <si>
+    <t>184.10</t>
+  </si>
+  <si>
+    <t>66.41</t>
+  </si>
+  <si>
+    <t>1145.00</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>612.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>1849.79</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>439200.00</t>
+  </si>
+  <si>
+    <t>497722.50</t>
+  </si>
+  <si>
+    <t>2820.00</t>
+  </si>
+  <si>
+    <t>3452.89</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>3128.48</t>
+  </si>
+  <si>
+    <t>22508.00</t>
+  </si>
+  <si>
+    <t>692.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>18700.00</t>
+  </si>
+  <si>
+    <t>5851.34</t>
+  </si>
+  <si>
+    <t>4520.14</t>
+  </si>
+  <si>
+    <t>18135.10</t>
+  </si>
+  <si>
+    <t>1267.71</t>
+  </si>
+  <si>
+    <t>1719.00</t>
+  </si>
+  <si>
+    <t>14277.60</t>
+  </si>
+  <si>
+    <t>1093.50</t>
+  </si>
+  <si>
+    <t>3300000.00</t>
+  </si>
+  <si>
+    <t>356000.00</t>
+  </si>
+  <si>
+    <t>5080.00</t>
+  </si>
+  <si>
+    <t>1633.80</t>
+  </si>
+  <si>
+    <t>80628.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>48911.23</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4999.12</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>56465.50</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>10100.00</t>
+  </si>
+  <si>
+    <t>21268.17</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>75664.00</t>
+  </si>
+  <si>
+    <t>21550.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>5773.00</t>
+  </si>
+  <si>
+    <t>6151.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>2637.60</t>
+  </si>
+  <si>
+    <t>636.00</t>
+  </si>
+  <si>
+    <t>4711.00</t>
+  </si>
+  <si>
+    <t>8645.00</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>1913.50</t>
+  </si>
+  <si>
+    <t>1295.55</t>
+  </si>
+  <si>
+    <t>3770.00</t>
+  </si>
+  <si>
+    <t>921.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>4929.50</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>406.37</t>
+  </si>
+  <si>
+    <t>9808.00</t>
+  </si>
+  <si>
+    <t>5360.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>7410.00</t>
+  </si>
+  <si>
+    <t>31716.00</t>
+  </si>
+  <si>
+    <t>3874.05</t>
+  </si>
+  <si>
+    <t>804.96</t>
+  </si>
+  <si>
+    <t>1860.00</t>
+  </si>
+  <si>
+    <t>128500.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>448.26</t>
+  </si>
+  <si>
+    <t>10710.00</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>13600.00</t>
+  </si>
+  <si>
+    <t>4211.70</t>
+  </si>
+  <si>
+    <t>204271.48</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>45600.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>2650250.00</t>
+  </si>
+  <si>
+    <t>274365.00</t>
+  </si>
+  <si>
+    <t>136500.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>128000.00</t>
+  </si>
+  <si>
+    <t>224000.00</t>
+  </si>
+  <si>
+    <t>321500.00</t>
+  </si>
+  <si>
+    <t>320000.00</t>
+  </si>
+  <si>
+    <t>211000.00</t>
+  </si>
+  <si>
+    <t>143080.00</t>
+  </si>
+  <si>
+    <t>2958038.42</t>
+  </si>
+  <si>
+    <t>244803.16</t>
+  </si>
+  <si>
+    <t>9156.00</t>
+  </si>
+  <si>
+    <t>83000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>2783.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>4394.60</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>41400.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>137986.00</t>
+  </si>
+  <si>
+    <t>5701.50</t>
+  </si>
+  <si>
+    <t>39800.00</t>
   </si>
 </sst>
 </file>
